--- a/test case/Test Cases 5.xlsx
+++ b/test case/Test Cases 5.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name=" Test Case 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Case 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Test Case 3" sheetId="2" r:id="rId3"/>
-    <sheet name="Test Case 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Test Case 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sign in Page" sheetId="1" r:id="rId1"/>
+    <sheet name="Search Page" sheetId="3" r:id="rId2"/>
+    <sheet name="Summary Page" sheetId="2" r:id="rId3"/>
+    <sheet name="Home Page" sheetId="4" r:id="rId4"/>
+    <sheet name="Packtpub Mastering R.E. Page" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -73,18 +73,12 @@
     <t>Click  "Lost password " link</t>
   </si>
   <si>
-    <t>Email address is entered</t>
-  </si>
-  <si>
     <t>Click "Submit" button</t>
   </si>
   <si>
     <t>Click  "Search" link</t>
   </si>
   <si>
-    <t>Not valid information is entered</t>
-  </si>
-  <si>
     <t>Link to "Issues" page</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
   </si>
   <si>
     <t>Check if Search input is focused</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cursor flashes in the Search input </t>
   </si>
   <si>
     <t>Click 
@@ -119,27 +110,6 @@
     <t>Check price in "Total due today" label</t>
   </si>
   <si>
-    <t>Page Reports is opened</t>
-  </si>
-  <si>
-    <t>Page Mastering Redmine-Second Edition is opened</t>
-  </si>
-  <si>
-    <t>Page Unlock the Packt library for FREE is opened</t>
-  </si>
-  <si>
-    <t>Page Issues is opened</t>
-  </si>
-  <si>
-    <t>Page Search  is opened</t>
-  </si>
-  <si>
-    <t>Page Lost password is opened</t>
-  </si>
-  <si>
-    <t>Login form is opened</t>
-  </si>
-  <si>
     <t>Check the password recovery with a valid but not registered email address on Sign in page, Lost password link.</t>
   </si>
   <si>
@@ -168,6 +138,36 @@
   </si>
   <si>
     <t>The price should be €0.00.</t>
+  </si>
+  <si>
+    <t>Login form should be opened</t>
+  </si>
+  <si>
+    <t>Page Lost password should be  opened</t>
+  </si>
+  <si>
+    <t>Email address should be  entered</t>
+  </si>
+  <si>
+    <t>Page Search  should be opened</t>
+  </si>
+  <si>
+    <t>Not valid information should be entered</t>
+  </si>
+  <si>
+    <t>Page Issues should be opened</t>
+  </si>
+  <si>
+    <t>Page Reports should be opened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cursor should be flashing in the Search input </t>
+  </si>
+  <si>
+    <t>Page Mastering Redmine-Second Edition should be opened</t>
+  </si>
+  <si>
+    <t>Page Unlock the Packt library for FREE should be opened</t>
   </si>
 </sst>
 </file>
@@ -731,55 +731,58 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -792,20 +795,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1048,88 +1048,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="D1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="40"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1144,14 +1144,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="25"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1160,14 +1160,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="17"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="31"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1176,14 +1176,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="17"/>
+      <c r="B10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1192,14 +1192,14 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="17"/>
+      <c r="B11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1208,10 +1208,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1220,10 +1220,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1232,57 +1232,57 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1313,88 +1313,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="D1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="40"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1409,14 +1409,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="41"/>
+      <c r="B8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="42"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1426,14 +1426,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="17"/>
+      <c r="B9" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="31"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1443,14 +1443,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="17"/>
+      <c r="B10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1459,10 +1459,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1472,10 +1472,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1484,10 +1484,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1496,40 +1496,35 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
@@ -1542,11 +1537,16 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1576,88 +1576,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="D1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="40"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1672,15 +1672,15 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="45"/>
+      <c r="B8" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14"/>
@@ -1689,14 +1689,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="44"/>
+      <c r="B9" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="45"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1706,14 +1706,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="43"/>
+      <c r="B10" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="44"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1724,10 +1724,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1736,10 +1736,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1748,10 +1748,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1760,30 +1760,48 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -1793,24 +1811,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1822,7 +1822,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1841,88 +1841,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="D1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="40"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1937,14 +1937,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="25"/>
+      <c r="B8" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1953,14 +1953,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="43"/>
+      <c r="B9" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="44"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1969,8 +1969,8 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1979,10 +1979,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1991,10 +1991,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -2003,10 +2003,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -2015,30 +2015,47 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -2048,23 +2065,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2074,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2093,88 +2093,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="D1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="40"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2189,15 +2189,15 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45"/>
+      <c r="B8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14"/>
@@ -2207,14 +2207,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="41"/>
+      <c r="B9" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="42"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -2224,14 +2224,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="17"/>
+      <c r="B10" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -2241,10 +2241,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -2253,10 +2253,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -2265,10 +2265,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -2277,30 +2277,48 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -2310,24 +2328,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test case/Test Cases 5.xlsx
+++ b/test case/Test Cases 5.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sign in Page" sheetId="1" r:id="rId1"/>
-    <sheet name="Search Page" sheetId="3" r:id="rId2"/>
-    <sheet name="Summary Page" sheetId="2" r:id="rId3"/>
-    <sheet name="Home Page" sheetId="4" r:id="rId4"/>
-    <sheet name="Packtpub Mastering R.E. Page" sheetId="5" r:id="rId5"/>
+    <sheet name="ID 1" sheetId="1" r:id="rId1"/>
+    <sheet name="ID 2" sheetId="3" r:id="rId2"/>
+    <sheet name="ID 3" sheetId="2" r:id="rId3"/>
+    <sheet name="ID 4" sheetId="4" r:id="rId4"/>
+    <sheet name="ID 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -734,74 +734,74 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1048,88 +1048,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1144,14 +1144,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1160,14 +1160,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1176,14 +1176,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1192,14 +1192,14 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1208,10 +1208,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1220,10 +1220,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1232,57 +1232,57 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1313,88 +1313,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1409,10 +1409,10 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="42" t="s">
         <v>41</v>
       </c>
@@ -1426,14 +1426,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1443,14 +1443,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1459,10 +1459,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1472,10 +1472,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1484,10 +1484,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1496,35 +1496,40 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
@@ -1537,16 +1542,11 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1576,88 +1576,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1672,14 +1672,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="16"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1689,14 +1689,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="45"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1706,14 +1706,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1724,10 +1724,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1736,10 +1736,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1748,10 +1748,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1760,48 +1760,30 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -1811,6 +1793,24 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1841,88 +1841,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1937,14 +1937,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1953,14 +1953,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="43" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1969,8 +1969,8 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1979,10 +1979,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1991,10 +1991,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -2003,10 +2003,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -2015,47 +2015,30 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -2065,6 +2048,23 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2074,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
@@ -2093,88 +2093,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2189,10 +2189,10 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="49" t="s">
         <v>46</v>
       </c>
@@ -2207,10 +2207,10 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="42" t="s">
         <v>47</v>
       </c>
@@ -2224,14 +2224,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -2241,10 +2241,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -2253,10 +2253,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -2265,10 +2265,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -2277,48 +2277,30 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -2328,6 +2310,24 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test case/Test Cases 5.xlsx
+++ b/test case/Test Cases 5.xlsx
@@ -734,74 +734,74 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1048,88 +1048,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="41"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="35" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1144,14 +1144,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1160,14 +1160,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1176,14 +1176,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1192,14 +1192,14 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1208,10 +1208,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1220,10 +1220,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1232,57 +1232,57 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1313,88 +1313,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="41"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="35" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1409,10 +1409,10 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="42" t="s">
         <v>41</v>
       </c>
@@ -1426,14 +1426,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1443,14 +1443,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1459,10 +1459,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1472,10 +1472,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1484,10 +1484,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1496,40 +1496,35 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
@@ -1542,11 +1537,16 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1576,88 +1576,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="41"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="43" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1672,14 +1672,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="16"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1689,14 +1689,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1706,14 +1706,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="44" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1724,10 +1724,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1736,10 +1736,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1748,10 +1748,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1760,30 +1760,48 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -1793,24 +1811,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1841,88 +1841,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="41"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="35" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1937,14 +1937,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1953,14 +1953,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="44" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1969,8 +1969,8 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="47"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1979,10 +1979,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1991,10 +1991,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -2003,10 +2003,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -2015,30 +2015,47 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -2048,23 +2065,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2093,88 +2093,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="41"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="43" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2185,14 +2185,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="49" t="s">
         <v>46</v>
       </c>
@@ -2203,14 +2203,14 @@
       <c r="I8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="42" t="s">
         <v>47</v>
       </c>
@@ -2224,14 +2224,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -2241,10 +2241,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -2253,10 +2253,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -2265,10 +2265,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -2277,30 +2277,48 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -2310,24 +2328,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
